--- a/Process Results/Allocation_XCH.xlsx
+++ b/Process Results/Allocation_XCH.xlsx
@@ -736,16 +736,16 @@
         <v/>
       </c>
       <c r="C5" s="12" t="n">
-        <v>270376.8</v>
+        <v>-497.28</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v/>
+        <v>-248.64</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>532313.9300000001</v>
+        <v>294463</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v/>
+        <v>498674.04</v>
       </c>
       <c r="G5" s="12" t="n">
         <v/>
@@ -754,16 +754,16 @@
         <v>48.65</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v/>
+        <v>18928.8901</v>
       </c>
       <c r="J5" s="12" t="n">
         <v/>
       </c>
       <c r="K5" s="12" t="n">
-        <v>11929.5581</v>
+        <v/>
       </c>
       <c r="L5" s="12" t="n">
-        <v>36358.4351</v>
+        <v>11100.2506</v>
       </c>
       <c r="M5" s="12" t="n"/>
       <c r="N5" s="7" t="n"/>
@@ -822,16 +822,16 @@
         <v/>
       </c>
       <c r="C6" s="12" t="n">
-        <v>223782.87</v>
+        <v/>
       </c>
       <c r="D6" s="12" t="n">
         <v/>
       </c>
       <c r="E6" s="12" t="n">
-        <v>586724.76</v>
+        <v>228920.3</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v/>
+        <v>551901.1900000001</v>
       </c>
       <c r="G6" s="12" t="n">
         <v/>
@@ -840,16 +840,16 @@
         <v>48.65</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v/>
+        <v>21598.2701</v>
       </c>
       <c r="J6" s="12" t="n">
         <v/>
       </c>
       <c r="K6" s="12" t="n">
-        <v>5982.947800000001</v>
+        <v/>
       </c>
       <c r="L6" s="12" t="n">
-        <v>39897.3631</v>
+        <v>7308.6406</v>
       </c>
       <c r="M6" s="12" t="n"/>
       <c r="N6" s="7" t="n"/>
@@ -908,16 +908,16 @@
         <v/>
       </c>
       <c r="C7" s="12" t="n">
-        <v>171388.254</v>
+        <v/>
       </c>
       <c r="D7" s="12" t="n">
         <v/>
       </c>
       <c r="E7" s="12" t="n">
-        <v>619944.26</v>
+        <v>187786.29</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v/>
+        <v>614149.3199999999</v>
       </c>
       <c r="G7" s="12" t="n">
         <v/>
@@ -926,16 +926,16 @@
         <v>48.65</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v/>
+        <v>23599.0104</v>
       </c>
       <c r="J7" s="12" t="n">
         <v/>
       </c>
       <c r="K7" s="12" t="n">
-        <v>3466.7509</v>
+        <v/>
       </c>
       <c r="L7" s="12" t="n">
-        <v>40258.9762</v>
+        <v>4222.2403</v>
       </c>
       <c r="M7" s="12" t="n"/>
       <c r="N7" s="7" t="n"/>
@@ -994,16 +994,16 @@
         <v/>
       </c>
       <c r="C8" s="12" t="n">
-        <v>129529.18</v>
+        <v>-24.16</v>
       </c>
       <c r="D8" s="12" t="n">
         <v/>
       </c>
       <c r="E8" s="12" t="n">
-        <v>645167.91</v>
+        <v>145918.9</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v/>
+        <v>628536.08</v>
       </c>
       <c r="G8" s="12" t="n">
         <v/>
@@ -1012,16 +1012,16 @@
         <v>48.65</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v/>
+        <v>23525.8604</v>
       </c>
       <c r="J8" s="12" t="n">
         <v/>
       </c>
       <c r="K8" s="12" t="n">
-        <v>496.08</v>
+        <v/>
       </c>
       <c r="L8" s="12" t="n">
-        <v>41235.5971</v>
+        <v>2025.7534</v>
       </c>
       <c r="M8" s="12" t="n"/>
       <c r="N8" s="7" t="n"/>
@@ -1080,16 +1080,16 @@
         <v/>
       </c>
       <c r="C9" s="12" t="n">
-        <v>93689.59000000001</v>
+        <v/>
       </c>
       <c r="D9" s="12" t="n">
         <v/>
       </c>
       <c r="E9" s="12" t="n">
-        <v>664474.24</v>
+        <v>110602.79</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v/>
+        <v>673450.34</v>
       </c>
       <c r="G9" s="12" t="n">
         <v/>
@@ -1098,7 +1098,7 @@
         <v>48.65</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>1523.4769</v>
+        <v>24751.7538</v>
       </c>
       <c r="J9" s="12" t="n">
         <v/>
@@ -1107,7 +1107,7 @@
         <v/>
       </c>
       <c r="L9" s="12" t="n">
-        <v>38486.5202</v>
+        <v>444.78</v>
       </c>
       <c r="M9" s="12" t="n"/>
       <c r="N9" s="7" t="n"/>
@@ -1166,16 +1166,16 @@
         <v/>
       </c>
       <c r="C10" s="12" t="n">
-        <v>61617.51</v>
+        <v>-372.96</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>-121.86</v>
+        <v>-310.8</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>692389.98</v>
+        <v>82917.33</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v/>
+        <v>693077.22</v>
       </c>
       <c r="G10" s="12" t="n">
         <v/>
@@ -1184,16 +1184,16 @@
         <v>48.65</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>4680.648200000001</v>
+        <v>23843.0935</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v/>
+        <v>1074.7969</v>
       </c>
       <c r="K10" s="12" t="n">
         <v/>
       </c>
       <c r="L10" s="12" t="n">
-        <v>33310.7975</v>
+        <v/>
       </c>
       <c r="M10" s="12" t="n"/>
       <c r="N10" s="7" t="n"/>
@@ -1252,34 +1252,34 @@
         <v/>
       </c>
       <c r="C11" s="12" t="n">
-        <v>25120.07</v>
+        <v/>
       </c>
       <c r="D11" s="12" t="n">
         <v/>
       </c>
       <c r="E11" s="12" t="n">
-        <v>727692.6899999999</v>
+        <v>55142.93</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1229.73</v>
+        <v>725224.11</v>
       </c>
       <c r="G11" s="12" t="n">
         <v/>
       </c>
       <c r="H11" s="12" t="n">
-        <v>48.65</v>
+        <v/>
       </c>
       <c r="I11" s="12" t="n">
-        <v>8173.4351</v>
+        <v>21784.3666</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v/>
+        <v>2295.6738</v>
       </c>
       <c r="K11" s="12" t="n">
         <v/>
       </c>
       <c r="L11" s="12" t="n">
-        <v>28383.5331</v>
+        <v/>
       </c>
       <c r="M11" s="12" t="n"/>
       <c r="N11" s="7" t="n"/>
@@ -1338,34 +1338,34 @@
         <v/>
       </c>
       <c r="C12" s="12" t="n">
-        <v>-467.71</v>
+        <v/>
       </c>
       <c r="D12" s="12" t="n">
-        <v>-157.84</v>
+        <v/>
       </c>
       <c r="E12" s="12" t="n">
-        <v>722368.7999999999</v>
+        <v>26696.44</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>15998.86</v>
+        <v>746286.0499999999</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v/>
+        <v>108.24</v>
       </c>
       <c r="H12" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>11469.6251</v>
+        <v>18289.8997</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v/>
+        <v>4681.6107</v>
       </c>
       <c r="K12" s="12" t="n">
         <v/>
       </c>
       <c r="L12" s="12" t="n">
-        <v>23998.5931</v>
+        <v/>
       </c>
       <c r="M12" s="12" t="n"/>
       <c r="N12" s="7" t="n"/>
@@ -1430,28 +1430,28 @@
         <v/>
       </c>
       <c r="E13" s="12" t="n">
-        <v>634377.27</v>
+        <v>-1063.97</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>111708.61</v>
+        <v>752496.91</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v/>
+        <v>15034.04</v>
       </c>
       <c r="H13" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>14417.6876</v>
+        <v>15267.4563</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v/>
+        <v>6762.970700000001</v>
       </c>
       <c r="K13" s="12" t="n">
         <v/>
       </c>
       <c r="L13" s="12" t="n">
-        <v>19602.5568</v>
+        <v/>
       </c>
       <c r="M13" s="12" t="n"/>
       <c r="N13" s="7" t="n"/>
@@ -1516,28 +1516,28 @@
         <v/>
       </c>
       <c r="E14" s="12" t="n">
-        <v>514214.77</v>
+        <v>-632.3000000000001</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>238493.78</v>
+        <v>647974.91</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v/>
+        <v>154987.27</v>
       </c>
       <c r="H14" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>17032.0407</v>
+        <v>12962.7103</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v/>
+        <v>8194.188200000001</v>
       </c>
       <c r="K14" s="12" t="n">
         <v/>
       </c>
       <c r="L14" s="12" t="n">
-        <v>16427.8337</v>
+        <v/>
       </c>
       <c r="M14" s="12" t="n"/>
       <c r="N14" s="7" t="n"/>
@@ -1602,28 +1602,28 @@
         <v/>
       </c>
       <c r="E15" s="12" t="n">
-        <v>410676.07</v>
+        <v>-62.16</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>365100.6</v>
+        <v>536931.7000000001</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v/>
+        <v>320464.84</v>
       </c>
       <c r="H15" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>18262.7132</v>
+        <v>10664.4603</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v/>
+        <v>9509.388199999999</v>
       </c>
       <c r="K15" s="12" t="n">
         <v/>
       </c>
       <c r="L15" s="12" t="n">
-        <v>13717.1637</v>
+        <v/>
       </c>
       <c r="M15" s="12" t="n"/>
       <c r="N15" s="7" t="n"/>
@@ -1682,34 +1682,34 @@
         <v/>
       </c>
       <c r="C16" s="12" t="n">
-        <v>-497.28</v>
+        <v/>
       </c>
       <c r="D16" s="12" t="n">
-        <v>-248.64</v>
+        <v/>
       </c>
       <c r="E16" s="12" t="n">
-        <v>294463</v>
+        <v>-151.88</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>498674.04</v>
+        <v>421934.11</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v/>
+        <v>464736.84</v>
       </c>
       <c r="H16" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>18928.8901</v>
+        <v>9099.2603</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v/>
+        <v>10730.4913</v>
       </c>
       <c r="K16" s="12" t="n">
         <v/>
       </c>
       <c r="L16" s="12" t="n">
-        <v>11100.2506</v>
+        <v/>
       </c>
       <c r="M16" s="12" t="n"/>
       <c r="N16" s="7" t="n"/>
@@ -1774,28 +1774,28 @@
         <v/>
       </c>
       <c r="E17" s="12" t="n">
-        <v>228920.3</v>
+        <v/>
       </c>
       <c r="F17" s="12" t="n">
-        <v>551901.1900000001</v>
+        <v>294710.71</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v/>
+        <v>635657.64</v>
       </c>
       <c r="H17" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>21598.2701</v>
+        <v>7338.6303</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v/>
+        <v>11825.3013</v>
       </c>
       <c r="K17" s="12" t="n">
         <v/>
       </c>
       <c r="L17" s="12" t="n">
-        <v>7308.6406</v>
+        <v/>
       </c>
       <c r="M17" s="12" t="n"/>
       <c r="N17" s="7" t="n"/>
@@ -1860,28 +1860,28 @@
         <v/>
       </c>
       <c r="E18" s="12" t="n">
-        <v>187786.29</v>
+        <v>-394.56</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>614149.3199999999</v>
+        <v>222001.87</v>
       </c>
       <c r="G18" s="12" t="n">
-        <v/>
+        <v>673151.17</v>
       </c>
       <c r="H18" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I18" s="12" t="n">
-        <v>23599.0104</v>
+        <v>5030.9403</v>
       </c>
       <c r="J18" s="12" t="n">
-        <v/>
+        <v>13334.6313</v>
       </c>
       <c r="K18" s="12" t="n">
         <v/>
       </c>
       <c r="L18" s="12" t="n">
-        <v>4222.2403</v>
+        <v/>
       </c>
       <c r="M18" s="12" t="n"/>
       <c r="N18" s="7" t="n"/>
@@ -1940,34 +1940,34 @@
         <v/>
       </c>
       <c r="C19" s="12" t="n">
-        <v>-24.16</v>
+        <v/>
       </c>
       <c r="D19" s="12" t="n">
         <v/>
       </c>
       <c r="E19" s="12" t="n">
-        <v>145918.9</v>
+        <v/>
       </c>
       <c r="F19" s="12" t="n">
-        <v>628536.08</v>
+        <v>181344.421</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v/>
+        <v>737956.551</v>
       </c>
       <c r="H19" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I19" s="12" t="n">
-        <v>23525.8604</v>
+        <v>2952.2703</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v/>
+        <v>14271.5213</v>
       </c>
       <c r="K19" s="12" t="n">
         <v/>
       </c>
       <c r="L19" s="12" t="n">
-        <v>2025.7534</v>
+        <v/>
       </c>
       <c r="M19" s="12" t="n"/>
       <c r="N19" s="7" t="n"/>
@@ -2032,28 +2032,28 @@
         <v/>
       </c>
       <c r="E20" s="12" t="n">
-        <v>110602.79</v>
+        <v>-83.92</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>673450.34</v>
+        <v>133778.501</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v/>
+        <v>764004.691</v>
       </c>
       <c r="H20" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>24751.7538</v>
+        <v>1415.6003</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v/>
+        <v>15574.9913</v>
       </c>
       <c r="K20" s="12" t="n">
         <v/>
       </c>
       <c r="L20" s="12" t="n">
-        <v>444.78</v>
+        <v/>
       </c>
       <c r="M20" s="12" t="n"/>
       <c r="N20" s="7" t="n"/>
@@ -2112,28 +2112,28 @@
         <v/>
       </c>
       <c r="C21" s="12" t="n">
-        <v>-372.96</v>
+        <v/>
       </c>
       <c r="D21" s="12" t="n">
-        <v>-310.8</v>
+        <v/>
       </c>
       <c r="E21" s="12" t="n">
-        <v>82917.33</v>
+        <v/>
       </c>
       <c r="F21" s="12" t="n">
-        <v>693077.22</v>
+        <v>99876.67099999999</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v/>
+        <v>691783.051</v>
       </c>
       <c r="H21" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>23843.0935</v>
+        <v>336.12</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>1074.7969</v>
+        <v>16313.1416</v>
       </c>
       <c r="K21" s="12" t="n">
         <v/>
@@ -2204,22 +2204,22 @@
         <v/>
       </c>
       <c r="E22" s="12" t="n">
-        <v>55142.93</v>
+        <v/>
       </c>
       <c r="F22" s="12" t="n">
-        <v>725224.11</v>
+        <v>74778.19100000001</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v/>
+        <v>652988.611</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v/>
+        <v>48.65</v>
       </c>
       <c r="I22" s="12" t="n">
-        <v>21784.3666</v>
+        <v/>
       </c>
       <c r="J22" s="12" t="n">
-        <v>2295.6738</v>
+        <v/>
       </c>
       <c r="K22" s="12" t="n">
         <v/>
@@ -2290,22 +2290,22 @@
         <v/>
       </c>
       <c r="E23" s="12" t="n">
-        <v>26696.44</v>
+        <v/>
       </c>
       <c r="F23" s="12" t="n">
-        <v>746286.0499999999</v>
+        <v>47524.82</v>
       </c>
       <c r="G23" s="12" t="n">
-        <v>108.24</v>
+        <v>617399.272</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I23" s="12" t="n">
-        <v>18289.8997</v>
+        <v/>
       </c>
       <c r="J23" s="12" t="n">
-        <v>4681.6107</v>
+        <v/>
       </c>
       <c r="K23" s="12" t="n">
         <v/>
@@ -2376,22 +2376,22 @@
         <v/>
       </c>
       <c r="E24" s="12" t="n">
-        <v>-1063.97</v>
+        <v/>
       </c>
       <c r="F24" s="12" t="n">
-        <v>752496.91</v>
+        <v>21657.68</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>15034.04</v>
+        <v>584644.97</v>
       </c>
       <c r="H24" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I24" s="12" t="n">
-        <v>15267.4563</v>
+        <v/>
       </c>
       <c r="J24" s="12" t="n">
-        <v>6762.970700000001</v>
+        <v/>
       </c>
       <c r="K24" s="12" t="n">
         <v/>
@@ -2462,22 +2462,22 @@
         <v/>
       </c>
       <c r="E25" s="12" t="n">
-        <v>-632.3000000000001</v>
+        <v/>
       </c>
       <c r="F25" s="12" t="n">
-        <v>647974.91</v>
+        <v>-474.41</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>154987.27</v>
+        <v>546131.5499999999</v>
       </c>
       <c r="H25" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I25" s="12" t="n">
-        <v>12962.7103</v>
+        <v/>
       </c>
       <c r="J25" s="12" t="n">
-        <v>8194.188200000001</v>
+        <v/>
       </c>
       <c r="K25" s="12" t="n">
         <v/>
@@ -2548,22 +2548,22 @@
         <v/>
       </c>
       <c r="E26" s="12" t="n">
-        <v>-62.16</v>
+        <v/>
       </c>
       <c r="F26" s="12" t="n">
-        <v>536931.7000000001</v>
+        <v/>
       </c>
       <c r="G26" s="12" t="n">
-        <v>320464.84</v>
+        <v/>
       </c>
       <c r="H26" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I26" s="12" t="n">
-        <v>10664.4603</v>
+        <v/>
       </c>
       <c r="J26" s="12" t="n">
-        <v>9509.388199999999</v>
+        <v/>
       </c>
       <c r="K26" s="12" t="n">
         <v/>
@@ -2634,22 +2634,22 @@
         <v/>
       </c>
       <c r="E27" s="12" t="n">
-        <v>-151.88</v>
+        <v/>
       </c>
       <c r="F27" s="12" t="n">
-        <v>421934.11</v>
+        <v/>
       </c>
       <c r="G27" s="12" t="n">
-        <v>464736.84</v>
+        <v/>
       </c>
       <c r="H27" s="12" t="n">
         <v>48.65</v>
       </c>
       <c r="I27" s="12" t="n">
-        <v>9099.2603</v>
+        <v/>
       </c>
       <c r="J27" s="12" t="n">
-        <v>10730.4913</v>
+        <v/>
       </c>
       <c r="K27" s="12" t="n">
         <v/>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="28">
       <c r="B28" s="6" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="C28" s="12" t="n">
         <v/>
@@ -2722,19 +2722,19 @@
         <v/>
       </c>
       <c r="F28" s="12" t="n">
-        <v>294710.71</v>
+        <v/>
       </c>
       <c r="G28" s="12" t="n">
-        <v>635657.64</v>
+        <v/>
       </c>
       <c r="H28" s="12" t="n">
-        <v>48.65</v>
+        <v/>
       </c>
       <c r="I28" s="12" t="n">
-        <v>7338.6303</v>
+        <v/>
       </c>
       <c r="J28" s="12" t="n">
-        <v>11825.3013</v>
+        <v/>
       </c>
       <c r="K28" s="12" t="n">
         <v/>

--- a/Process Results/Allocation_XCH.xlsx
+++ b/Process Results/Allocation_XCH.xlsx
@@ -793,16 +793,16 @@
         <v/>
       </c>
       <c r="C5" s="10" t="n">
-        <v>-372.96</v>
+        <v/>
       </c>
       <c r="D5" s="10" t="n">
-        <v>-310.8</v>
+        <v/>
       </c>
       <c r="E5" s="10" t="n">
-        <v>80766.53999999999</v>
+        <v>53482.8</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>668780.14</v>
+        <v>700890.25</v>
       </c>
       <c r="G5" s="10" t="n">
         <v/>
@@ -817,10 +817,10 @@
         <v/>
       </c>
       <c r="K5" s="10" t="n">
-        <v>48.65</v>
+        <v/>
       </c>
       <c r="L5" s="10" t="n">
-        <v>22757.8535</v>
+        <v>20872.5866</v>
       </c>
       <c r="M5" s="10" t="n"/>
       <c r="N5" s="10" t="n"/>
@@ -907,16 +907,16 @@
         <v/>
       </c>
       <c r="E6" s="10" t="n">
-        <v>53482.8</v>
+        <v>25692.16</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>700890.25</v>
+        <v>717705.3100000001</v>
       </c>
       <c r="G6" s="10" t="n">
         <v/>
       </c>
       <c r="H6" s="10" t="n">
-        <v/>
+        <v>108.24</v>
       </c>
       <c r="I6" s="10" t="n">
         <v/>
@@ -925,10 +925,10 @@
         <v/>
       </c>
       <c r="K6" s="10" t="n">
-        <v/>
+        <v>48.65</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>20872.5866</v>
+        <v>17736.2297</v>
       </c>
       <c r="M6" s="10" t="n"/>
       <c r="N6" s="10" t="n"/>
@@ -1015,16 +1015,16 @@
         <v/>
       </c>
       <c r="E7" s="10" t="n">
-        <v>25692.16</v>
+        <v>-477.77</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>717705.3100000001</v>
+        <v>725411.4</v>
       </c>
       <c r="G7" s="10" t="n">
         <v/>
       </c>
       <c r="H7" s="10" t="n">
-        <v>108.24</v>
+        <v>15034.04</v>
       </c>
       <c r="I7" s="10" t="n">
         <v/>
@@ -1036,7 +1036,7 @@
         <v>48.65</v>
       </c>
       <c r="L7" s="10" t="n">
-        <v>17736.2297</v>
+        <v>14518.9663</v>
       </c>
       <c r="M7" s="10" t="n"/>
       <c r="N7" s="10" t="n"/>
@@ -1123,16 +1123,16 @@
         <v/>
       </c>
       <c r="E8" s="10" t="n">
-        <v>-477.77</v>
+        <v>-574.28</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>725411.4</v>
+        <v>622896.26</v>
       </c>
       <c r="G8" s="10" t="n">
         <v/>
       </c>
       <c r="H8" s="10" t="n">
-        <v>15034.04</v>
+        <v>150751.64</v>
       </c>
       <c r="I8" s="10" t="n">
         <v/>
@@ -1144,7 +1144,7 @@
         <v>48.65</v>
       </c>
       <c r="L8" s="10" t="n">
-        <v>14518.9663</v>
+        <v>12311.0403</v>
       </c>
       <c r="M8" s="10" t="n"/>
       <c r="N8" s="10" t="n"/>
@@ -1231,16 +1231,16 @@
         <v/>
       </c>
       <c r="E9" s="10" t="n">
-        <v>-574.28</v>
+        <v/>
       </c>
       <c r="F9" s="10" t="n">
-        <v>622896.26</v>
+        <v>515910.29</v>
       </c>
       <c r="G9" s="10" t="n">
         <v/>
       </c>
       <c r="H9" s="10" t="n">
-        <v>150751.64</v>
+        <v>308366.47</v>
       </c>
       <c r="I9" s="10" t="n">
         <v/>
@@ -1252,7 +1252,7 @@
         <v>48.65</v>
       </c>
       <c r="L9" s="10" t="n">
-        <v>12311.0403</v>
+        <v>10649.4403</v>
       </c>
       <c r="M9" s="10" t="n"/>
       <c r="N9" s="10" t="n"/>
@@ -1342,13 +1342,13 @@
         <v/>
       </c>
       <c r="F10" s="10" t="n">
-        <v>515910.29</v>
+        <v>396757.18</v>
       </c>
       <c r="G10" s="10" t="n">
         <v/>
       </c>
       <c r="H10" s="10" t="n">
-        <v>308366.47</v>
+        <v>446092.39</v>
       </c>
       <c r="I10" s="10" t="n">
         <v/>
@@ -1360,7 +1360,7 @@
         <v>48.65</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>10649.4403</v>
+        <v>8906.6703</v>
       </c>
       <c r="M10" s="10" t="n"/>
       <c r="N10" s="10" t="n"/>
@@ -1450,13 +1450,13 @@
         <v/>
       </c>
       <c r="F11" s="10" t="n">
-        <v>396757.18</v>
+        <v>280786.4</v>
       </c>
       <c r="G11" s="10" t="n">
         <v/>
       </c>
       <c r="H11" s="10" t="n">
-        <v>446092.39</v>
+        <v>621197.23</v>
       </c>
       <c r="I11" s="10" t="n">
         <v/>
@@ -1468,7 +1468,7 @@
         <v>48.65</v>
       </c>
       <c r="L11" s="10" t="n">
-        <v>8906.6703</v>
+        <v>7133.7503</v>
       </c>
       <c r="M11" s="10" t="n"/>
       <c r="N11" s="10" t="n"/>
@@ -1555,16 +1555,16 @@
         <v/>
       </c>
       <c r="E12" s="10" t="n">
-        <v/>
+        <v>-394.56</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>280786.4</v>
+        <v>216432.61</v>
       </c>
       <c r="G12" s="10" t="n">
         <v/>
       </c>
       <c r="H12" s="10" t="n">
-        <v>621197.23</v>
+        <v>658345.0599999999</v>
       </c>
       <c r="I12" s="10" t="n">
         <v/>
@@ -1576,7 +1576,7 @@
         <v>48.65</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>7133.7503</v>
+        <v>4666.4303</v>
       </c>
       <c r="M12" s="10" t="n"/>
       <c r="N12" s="10" t="n"/>
@@ -1663,16 +1663,16 @@
         <v/>
       </c>
       <c r="E13" s="10" t="n">
-        <v>-394.56</v>
+        <v/>
       </c>
       <c r="F13" s="10" t="n">
-        <v>216432.61</v>
+        <v>177750.661</v>
       </c>
       <c r="G13" s="10" t="n">
         <v/>
       </c>
       <c r="H13" s="10" t="n">
-        <v>658345.0599999999</v>
+        <v>722637.211</v>
       </c>
       <c r="I13" s="10" t="n">
         <v/>
@@ -1684,7 +1684,7 @@
         <v>48.65</v>
       </c>
       <c r="L13" s="10" t="n">
-        <v>4666.4303</v>
+        <v>2894.9103</v>
       </c>
       <c r="M13" s="10" t="n"/>
       <c r="N13" s="10" t="n"/>
@@ -1774,13 +1774,13 @@
         <v/>
       </c>
       <c r="F14" s="10" t="n">
-        <v>177750.661</v>
+        <v>133308.711</v>
       </c>
       <c r="G14" s="10" t="n">
         <v/>
       </c>
       <c r="H14" s="10" t="n">
-        <v>722637.211</v>
+        <v>749189.461</v>
       </c>
       <c r="I14" s="10" t="n">
         <v/>
@@ -1792,7 +1792,7 @@
         <v>48.65</v>
       </c>
       <c r="L14" s="10" t="n">
-        <v>2894.9103</v>
+        <v>1415.6003</v>
       </c>
       <c r="M14" s="10" t="n"/>
       <c r="N14" s="10" t="n"/>
@@ -1882,13 +1882,13 @@
         <v/>
       </c>
       <c r="F15" s="10" t="n">
-        <v>133308.711</v>
+        <v>99018.27100000001</v>
       </c>
       <c r="G15" s="10" t="n">
         <v/>
       </c>
       <c r="H15" s="10" t="n">
-        <v>749189.461</v>
+        <v>678705.451</v>
       </c>
       <c r="I15" s="10" t="n">
         <v/>
@@ -1900,7 +1900,7 @@
         <v>48.65</v>
       </c>
       <c r="L15" s="10" t="n">
-        <v>1415.6003</v>
+        <v>336.12</v>
       </c>
       <c r="M15" s="10" t="n"/>
       <c r="N15" s="10" t="n"/>
@@ -1990,13 +1990,13 @@
         <v/>
       </c>
       <c r="F16" s="10" t="n">
-        <v>99018.27100000001</v>
+        <v>73557.321</v>
       </c>
       <c r="G16" s="10" t="n">
         <v/>
       </c>
       <c r="H16" s="10" t="n">
-        <v>678705.451</v>
+        <v>638682.351</v>
       </c>
       <c r="I16" s="10" t="n">
         <v/>
@@ -2008,7 +2008,7 @@
         <v>48.65</v>
       </c>
       <c r="L16" s="10" t="n">
-        <v>336.12</v>
+        <v/>
       </c>
       <c r="M16" s="10" t="n"/>
       <c r="N16" s="10" t="n"/>
@@ -2098,13 +2098,13 @@
         <v/>
       </c>
       <c r="F17" s="10" t="n">
-        <v>73557.321</v>
+        <v>46163.52</v>
       </c>
       <c r="G17" s="10" t="n">
         <v/>
       </c>
       <c r="H17" s="10" t="n">
-        <v>638682.351</v>
+        <v>605935.822</v>
       </c>
       <c r="I17" s="10" t="n">
         <v/>
@@ -2206,13 +2206,13 @@
         <v/>
       </c>
       <c r="F18" s="10" t="n">
-        <v>46163.52</v>
+        <v>20703.59</v>
       </c>
       <c r="G18" s="10" t="n">
         <v/>
       </c>
       <c r="H18" s="10" t="n">
-        <v>605935.822</v>
+        <v>573064.6800000001</v>
       </c>
       <c r="I18" s="10" t="n">
         <v/>
@@ -2314,19 +2314,19 @@
         <v/>
       </c>
       <c r="F19" s="10" t="n">
-        <v>20703.59</v>
+        <v>-474.41</v>
       </c>
       <c r="G19" s="10" t="n">
         <v/>
       </c>
       <c r="H19" s="10" t="n">
-        <v>573064.6800000001</v>
+        <v>535477.9500000001</v>
       </c>
       <c r="I19" s="10" t="n">
         <v/>
       </c>
       <c r="J19" s="10" t="n">
-        <v/>
+        <v>2997</v>
       </c>
       <c r="K19" s="10" t="n">
         <v>48.65</v>
@@ -2422,19 +2422,19 @@
         <v/>
       </c>
       <c r="F20" s="10" t="n">
-        <v>-474.41</v>
+        <v/>
       </c>
       <c r="G20" s="10" t="n">
-        <v/>
+        <v>-84.08</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>535477.9500000001</v>
+        <v/>
       </c>
       <c r="I20" s="10" t="n">
-        <v/>
+        <v>461142.16</v>
       </c>
       <c r="J20" s="10" t="n">
-        <v>2997</v>
+        <v>33559</v>
       </c>
       <c r="K20" s="10" t="n">
         <v>48.65</v>
@@ -2533,16 +2533,16 @@
         <v/>
       </c>
       <c r="G21" s="10" t="n">
-        <v>-84.08</v>
+        <v>-289.92</v>
       </c>
       <c r="H21" s="10" t="n">
         <v/>
       </c>
       <c r="I21" s="10" t="n">
-        <v>461142.16</v>
+        <v>372833.11</v>
       </c>
       <c r="J21" s="10" t="n">
-        <v>33559</v>
+        <v>75444.13</v>
       </c>
       <c r="K21" s="10" t="n">
         <v>48.65</v>
@@ -2641,16 +2641,16 @@
         <v/>
       </c>
       <c r="G22" s="10" t="n">
-        <v>-289.92</v>
+        <v/>
       </c>
       <c r="H22" s="10" t="n">
         <v/>
       </c>
       <c r="I22" s="10" t="n">
-        <v>372833.11</v>
+        <v>264773.45</v>
       </c>
       <c r="J22" s="10" t="n">
-        <v>75444.13</v>
+        <v>136552.62</v>
       </c>
       <c r="K22" s="10" t="n">
         <v>48.65</v>
@@ -2749,16 +2749,16 @@
         <v/>
       </c>
       <c r="G23" s="10" t="n">
-        <v/>
+        <v>-491.76</v>
       </c>
       <c r="H23" s="10" t="n">
         <v/>
       </c>
       <c r="I23" s="10" t="n">
-        <v>264773.45</v>
+        <v>168210.01</v>
       </c>
       <c r="J23" s="10" t="n">
-        <v>136552.62</v>
+        <v>177601.84</v>
       </c>
       <c r="K23" s="10" t="n">
         <v>48.65</v>
@@ -2857,16 +2857,16 @@
         <v/>
       </c>
       <c r="G24" s="10" t="n">
-        <v>-491.76</v>
+        <v/>
       </c>
       <c r="H24" s="10" t="n">
         <v/>
       </c>
       <c r="I24" s="10" t="n">
-        <v>168210.01</v>
+        <v>111405.69</v>
       </c>
       <c r="J24" s="10" t="n">
-        <v>177601.84</v>
+        <v>187680.38</v>
       </c>
       <c r="K24" s="10" t="n">
         <v>48.65</v>
@@ -2971,10 +2971,10 @@
         <v/>
       </c>
       <c r="I25" s="10" t="n">
-        <v>111405.69</v>
+        <v>58122.39000000001</v>
       </c>
       <c r="J25" s="10" t="n">
-        <v>187680.38</v>
+        <v>157359.73</v>
       </c>
       <c r="K25" s="10" t="n">
         <v>48.65</v>
@@ -3079,10 +3079,10 @@
         <v/>
       </c>
       <c r="I26" s="10" t="n">
-        <v>58122.39000000001</v>
+        <v>21368.34</v>
       </c>
       <c r="J26" s="10" t="n">
-        <v>157359.73</v>
+        <v>10569.29</v>
       </c>
       <c r="K26" s="10" t="n">
         <v>48.65</v>
@@ -3187,10 +3187,10 @@
         <v/>
       </c>
       <c r="I27" s="10" t="n">
-        <v/>
+        <v>105.26</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v/>
+        <v>21.92</v>
       </c>
       <c r="K27" s="10" t="n">
         <v/>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="28">
       <c r="B28" s="6" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="C28" s="10" t="n">
         <v/>
